--- a/зависимость.xlsx
+++ b/зависимость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingAndProjects\Studies\7sem\RIS_course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93373AAD-B939-4078-B273-E5C905615269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D54BC6-274B-4D0F-A14C-AFB3E3AB75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени от кол-ва узлов</a:t>
+              <a:t> времени от количества узлов</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/зависимость.xlsx
+++ b/зависимость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingAndProjects\Studies\7sem\RIS_course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D54BC6-274B-4D0F-A14C-AFB3E3AB75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E603D6B-E3B3-4F42-A081-E233B6612756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,11 +136,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость</a:t>
+              <a:t>Эффективность от количества</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени от количества узлов</a:t>
+              <a:t> потоков</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -229,10 +229,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,13 +244,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6087</c:v>
+                  <c:v>5888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3084</c:v>
+                  <c:v>5030</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2036</c:v>
+                  <c:v>4938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,15 +315,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Количество </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Slave-</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>узлов</a:t>
+                  <a:t>Количество потоков</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1437,7 +1429,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,23 +1451,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>6087</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>3084</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>2036</v>
+        <v>4938</v>
       </c>
     </row>
   </sheetData>
